--- a/data/trans_dic/P36B02_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P36B02_R-Clase-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.9360236799775976</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.8732588680874375</v>
+        <v>0.8732588680874374</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.9156315552696648</v>
+        <v>0.9179394169809529</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8933409572480485</v>
+        <v>0.8971116735514268</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.9080610795047835</v>
+        <v>0.9053553683090475</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.8541254147821837</v>
+        <v>0.8529208339875659</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.9449564604994077</v>
+        <v>0.9483711142702047</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.9190268766418156</v>
+        <v>0.916914887432124</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.9085837414661933</v>
+        <v>0.9030496271793962</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.8291124340065326</v>
+        <v>0.8323937391082615</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.9357619321221472</v>
+        <v>0.9349303441968412</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.9132436915602082</v>
+        <v>0.9139630628028411</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.9169590681012152</v>
+        <v>0.9177233209449114</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.853933703891095</v>
+        <v>0.8511178063785427</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9614864719240471</v>
+        <v>0.9629672998847223</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9469596323201555</v>
+        <v>0.9474113460686252</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9558259891943444</v>
+        <v>0.9577801026802055</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9130050064049532</v>
+        <v>0.9092916528318571</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9845337178922757</v>
+        <v>0.9865650887988755</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.9706888725328865</v>
+        <v>0.970749548035848</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.9612714436894967</v>
+        <v>0.960907638059268</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.8872051936201366</v>
+        <v>0.8891780392601257</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.9664802816212629</v>
+        <v>0.9677925145640777</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.9504429548754231</v>
+        <v>0.9518474463347724</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.9529965962851146</v>
+        <v>0.9522202437410834</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.8934132489908282</v>
+        <v>0.8926406737244528</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.9197077988597002</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.8965622654312009</v>
+        <v>0.8965622654312008</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.9349167696423956</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8943239687556098</v>
+        <v>0.893576359683412</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.9181714226133719</v>
+        <v>0.9162670500829132</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8868363414950848</v>
+        <v>0.8866133310691676</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.8644306557853506</v>
+        <v>0.8625039234272124</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.9022690913027603</v>
+        <v>0.9037693958405288</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.9270958066891175</v>
+        <v>0.9270850477036854</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.9121370216051083</v>
+        <v>0.9113989709632599</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.8237726973296887</v>
+        <v>0.8251076082363006</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.9105081981493131</v>
+        <v>0.908860136872</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.9335924730370884</v>
+        <v>0.9318580152136583</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.9080128223723363</v>
+        <v>0.9096063037124794</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.8530182158886532</v>
+        <v>0.8546116990589723</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9526980531305881</v>
+        <v>0.9493387797938726</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9693509039778462</v>
+        <v>0.9689110921712852</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.946131722343682</v>
+        <v>0.947630747601647</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9234452673732058</v>
+        <v>0.9218040660034531</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9571263953329856</v>
+        <v>0.9581009525305638</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.974689600200366</v>
+        <v>0.9745589458713875</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.9625005487239865</v>
+        <v>0.9614984461582342</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.8833882782688532</v>
+        <v>0.8839462130403403</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.9482441092220806</v>
+        <v>0.9486462272994296</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.9658065667787742</v>
+        <v>0.9668539903957547</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.9480068099348207</v>
+        <v>0.9462397869349618</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.8987488921376927</v>
+        <v>0.8978191745704405</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.9005052188777806</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.871294574402438</v>
+        <v>0.8712945744024378</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.9125591852615709</v>
@@ -957,7 +957,7 @@
         <v>0.9435665898504699</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.8754010328446671</v>
+        <v>0.8754010328446674</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.9172835157503103</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8911860912208424</v>
+        <v>0.8946549843113727</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.9104733918059497</v>
+        <v>0.9102903676701465</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8711210448837046</v>
+        <v>0.8703522089575639</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8375720526368211</v>
+        <v>0.8356210538035364</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.8615476256835151</v>
+        <v>0.8588804294322894</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.9089745307703144</v>
+        <v>0.9135885952556086</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.9030819857173255</v>
+        <v>0.9041546387779179</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.8260535006678511</v>
+        <v>0.8276205185413724</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.8947287671040963</v>
+        <v>0.895213708142615</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.9181322910030226</v>
+        <v>0.9171566623436946</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.8859533115124857</v>
+        <v>0.8856155636267646</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.8458557961083197</v>
+        <v>0.8449272723481804</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9387063524296372</v>
+        <v>0.9414288552720209</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9508242181279002</v>
+        <v>0.9505904980185604</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9258361320336963</v>
+        <v>0.9262120960174135</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9008456633212319</v>
+        <v>0.9021812034241775</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.947618671852302</v>
+        <v>0.950223669814372</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.9685235439966645</v>
+        <v>0.9688192653706393</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9754252284914616</v>
+        <v>0.9743231623899072</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.908505955543113</v>
+        <v>0.9099421801537627</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.9364123182625979</v>
+        <v>0.9367009592572225</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.9504921944281043</v>
+        <v>0.9520980999737052</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.9305066482569739</v>
+        <v>0.9289839811143374</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.8976319716261605</v>
+        <v>0.8962895686636658</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.9086445050459864</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.8719615232037268</v>
+        <v>0.8719615232037269</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.9438196886304054</v>
@@ -1105,7 +1105,7 @@
         <v>0.9222097421390246</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.8853814546983386</v>
+        <v>0.8853814546983388</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.9031222447268924</v>
+        <v>0.9027659601622976</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.9077722460969148</v>
+        <v>0.9072926911335663</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8879398894488887</v>
+        <v>0.8899116806440474</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.8476863425587611</v>
+        <v>0.8489971366574424</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.9222338750060745</v>
+        <v>0.9236959380215957</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.9039408557494604</v>
+        <v>0.9064980235551239</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.9235316725957949</v>
+        <v>0.9227507411716757</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.8816092634924546</v>
+        <v>0.8815981937761048</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.9169011542534591</v>
+        <v>0.9158944522266165</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.9117091666003238</v>
+        <v>0.9130040337705582</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.9090131371862288</v>
+        <v>0.9088723875059557</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.869663490965063</v>
+        <v>0.8697898923008236</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9336933582724153</v>
+        <v>0.9345170094338312</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9408438531008292</v>
+        <v>0.9402207110456017</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9235940254570663</v>
+        <v>0.9257721701581938</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.8918996790940737</v>
+        <v>0.8928419849252058</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9583749026495408</v>
+        <v>0.959151522983118</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.9461664471953458</v>
+        <v>0.9460890859456887</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9566055795771427</v>
+        <v>0.9556744648476162</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.9196152115553332</v>
+        <v>0.9195651142809029</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.9405628602301783</v>
+        <v>0.9394995938788357</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.9378565957016048</v>
+        <v>0.9384436564614658</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.9339825550227786</v>
+        <v>0.9339395584144881</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.899480821525924</v>
+        <v>0.8990477875050612</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.9244535699191844</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.8527217752881036</v>
+        <v>0.8527217752881033</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.945028051736712</v>
@@ -1241,7 +1241,7 @@
         <v>0.9313814944508194</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.8837428705743993</v>
+        <v>0.8837428705743992</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8962186394372356</v>
+        <v>0.8955867646751651</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.9021776261162028</v>
+        <v>0.9063911793889672</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8979536552044207</v>
+        <v>0.8985290145854979</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.8219604174153995</v>
+        <v>0.8152057184084199</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.9220909387287891</v>
+        <v>0.9210414312816848</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.9232488479096468</v>
+        <v>0.9235272242632274</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.9175422393275916</v>
+        <v>0.9168619781812036</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.8846120754278559</v>
+        <v>0.885471812297435</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.9183842627900571</v>
+        <v>0.9203822715198869</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.9210103217878881</v>
+        <v>0.9230000060936763</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.9176474850870507</v>
+        <v>0.9170580275016557</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.8645992639856748</v>
+        <v>0.8639700393915392</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9517759282751984</v>
+        <v>0.9497332983838188</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9501153261439095</v>
+        <v>0.950466684405025</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9433113075198724</v>
+        <v>0.9439072017076339</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.8849342090756339</v>
+        <v>0.8859860788372557</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9619587003048851</v>
+        <v>0.9618622843529248</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.9590287613838965</v>
+        <v>0.9597133736946548</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9532999432036019</v>
+        <v>0.9535615694067228</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.9197378772521816</v>
+        <v>0.9198907855993947</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.952525568068652</v>
+        <v>0.9539092669624726</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.9491289965325362</v>
+        <v>0.950350938021834</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.9451554481500934</v>
+        <v>0.945229798006711</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.8997210413620117</v>
+        <v>0.8993891183571002</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.93906099671774</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.8709145913058532</v>
+        <v>0.8709145913058531</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.9415560929617822</v>
@@ -1377,7 +1377,7 @@
         <v>0.9411530842666681</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.8873241426255029</v>
+        <v>0.887324142625503</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.9411048274248569</v>
+        <v>0.9400182254877316</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.9405313046227529</v>
+        <v>0.938167613327386</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.9081189556271622</v>
+        <v>0.9025194977444988</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.7881860075794168</v>
+        <v>0.7968388854280194</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.9271848793953092</v>
+        <v>0.9278633232794132</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.9280289546071128</v>
+        <v>0.9265384033420376</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.9255424984809635</v>
+        <v>0.9251868779728252</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.8692185575373996</v>
+        <v>0.8700755043923781</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.9347176898016393</v>
+        <v>0.9338994192132304</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.9351160400984515</v>
+        <v>0.9347047044490497</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.9287040362071183</v>
+        <v>0.9272564155846152</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.8626226640743054</v>
+        <v>0.8629678736053593</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.9822478775084331</v>
+        <v>0.9830563566607927</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.9851620568801036</v>
+        <v>0.9823615132789939</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9637886345352492</v>
+        <v>0.9618735838783533</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.9267238038480512</v>
+        <v>0.9234721289508662</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9534245561146348</v>
+        <v>0.9535732362947172</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.9556521409045091</v>
+        <v>0.9560619758391529</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.95424701236274</v>
+        <v>0.9535240133552346</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.9114490148384436</v>
+        <v>0.911199261000376</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.9568227574783388</v>
+        <v>0.9569531732122114</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.958646110071285</v>
+        <v>0.9590571040874264</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.9537715245439037</v>
+        <v>0.953218160069214</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.9072104094111378</v>
+        <v>0.9074104830737036</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.9173135244879113</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.8741823524321777</v>
+        <v>0.8741823524321776</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.943106511563873</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.9189291735314233</v>
+        <v>0.9194726227990495</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.9235945724080055</v>
+        <v>0.9236435984995027</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.9069289137191126</v>
+        <v>0.907169127861567</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.8604906211438522</v>
+        <v>0.8606969015627309</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.9350547915671162</v>
+        <v>0.9348372768645213</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.9334879992016902</v>
+        <v>0.9345135789108048</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.9310489009791322</v>
+        <v>0.9320071597316417</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.8784117211105456</v>
+        <v>0.8792041140074398</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.9298232537269181</v>
+        <v>0.9299170784228704</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.9310304994008896</v>
+        <v>0.9302742234337105</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.9229043739739082</v>
+        <v>0.9223166234824683</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.8731406809706951</v>
+        <v>0.8727819242275476</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9370503267536782</v>
+        <v>0.9375638564517939</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.9413311651159146</v>
+        <v>0.9424737937245086</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9272942787141757</v>
+        <v>0.9261642226244822</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.8859164684969317</v>
+        <v>0.8858184052897227</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.9513848716454216</v>
+        <v>0.9504078848135445</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.9499550411620518</v>
+        <v>0.9499344115804339</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.9479698243827491</v>
+        <v>0.9481117028551008</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.897007735330975</v>
+        <v>0.8975683000957231</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.9421213931440809</v>
+        <v>0.9418152858785561</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.9434193027320342</v>
+        <v>0.9430223080868771</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.9351358275571343</v>
+        <v>0.9350399439892355</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.8895666934877737</v>
+        <v>0.8885031887865362</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>433804</v>
+        <v>434898</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>390578</v>
+        <v>392227</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>388679</v>
+        <v>387521</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>470297</v>
+        <v>469634</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>289799</v>
+        <v>290846</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>288161</v>
+        <v>287499</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>315329</v>
+        <v>313408</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>404948</v>
+        <v>406550</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>730322</v>
+        <v>729673</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>685628</v>
+        <v>686168</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>710723</v>
+        <v>711315</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>887262</v>
+        <v>884336</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>455529</v>
+        <v>456231</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>414021</v>
+        <v>414219</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>409124</v>
+        <v>409961</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>502717</v>
+        <v>500672</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>301937</v>
+        <v>302560</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>304359</v>
+        <v>304379</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>333614</v>
+        <v>333488</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>433321</v>
+        <v>434284</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>754296</v>
+        <v>755320</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>713556</v>
+        <v>714610</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>738655</v>
+        <v>738054</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>928282</v>
+        <v>927480</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>328158</v>
+        <v>327884</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>384527</v>
+        <v>383730</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>331969</v>
+        <v>331886</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>417703</v>
+        <v>416772</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>335522</v>
+        <v>336080</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>313369</v>
+        <v>313365</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>337661</v>
+        <v>337388</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>348574</v>
+        <v>349139</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>672683</v>
+        <v>671465</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>706550</v>
+        <v>705238</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>676031</v>
+        <v>677217</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>773137</v>
+        <v>774582</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>349577</v>
+        <v>348345</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>405961</v>
+        <v>405777</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>354165</v>
+        <v>354727</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>446220</v>
+        <v>445427</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>355922</v>
+        <v>356284</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>329456</v>
+        <v>329412</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>356305</v>
+        <v>355934</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>373800</v>
+        <v>374036</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>700562</v>
+        <v>700859</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>730930</v>
+        <v>731723</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>705807</v>
+        <v>704492</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>814586</v>
+        <v>813743</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>482584</v>
+        <v>484462</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>573066</v>
+        <v>572950</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>454650</v>
+        <v>454249</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>395009</v>
+        <v>394089</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>144552</v>
+        <v>144105</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>235502</v>
+        <v>236697</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>150023</v>
+        <v>150201</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>154883</v>
+        <v>155176</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>634621</v>
+        <v>634965</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>815761</v>
+        <v>814894</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>609568</v>
+        <v>609335</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>557511</v>
+        <v>556899</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>508316</v>
+        <v>509790</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>598463</v>
+        <v>598316</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>483207</v>
+        <v>483403</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>424850</v>
+        <v>425479</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>158993</v>
+        <v>159430</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>250930</v>
+        <v>251007</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>162041</v>
+        <v>161857</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>170342</v>
+        <v>170611</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>664187</v>
+        <v>664392</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>844512</v>
+        <v>845939</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>640222</v>
+        <v>639174</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>591637</v>
+        <v>590753</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1118367</v>
+        <v>1117926</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1052116</v>
+        <v>1051560</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1019848</v>
+        <v>1022113</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>959448</v>
+        <v>960931</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>658738</v>
+        <v>659782</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>691235</v>
+        <v>693191</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>762723</v>
+        <v>762078</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>759252</v>
+        <v>759242</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1790360</v>
+        <v>1788394</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1753855</v>
+        <v>1756346</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1794784</v>
+        <v>1794506</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1733286</v>
+        <v>1733538</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>1156224</v>
+        <v>1157244</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>1090446</v>
+        <v>1089724</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1060799</v>
+        <v>1063300</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>1009490</v>
+        <v>1010557</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>684553</v>
+        <v>685108</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>723525</v>
+        <v>723466</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>790038</v>
+        <v>789269</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>791983</v>
+        <v>791940</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1836562</v>
+        <v>1834486</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1804155</v>
+        <v>1805284</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1844084</v>
+        <v>1843999</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1792714</v>
+        <v>1791851</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>314174</v>
+        <v>313952</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>460648</v>
+        <v>462800</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>556564</v>
+        <v>556921</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>466844</v>
+        <v>463008</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>523396</v>
+        <v>522801</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>702164</v>
+        <v>702376</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>677370</v>
+        <v>676868</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>734980</v>
+        <v>735694</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>843237</v>
+        <v>845071</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1170726</v>
+        <v>1173255</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1246219</v>
+        <v>1245418</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1209414</v>
+        <v>1208533</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>333650</v>
+        <v>332934</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>485125</v>
+        <v>485304</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>584678</v>
+        <v>585047</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>502611</v>
+        <v>503208</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>546026</v>
+        <v>545971</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>729376</v>
+        <v>729897</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>703768</v>
+        <v>703961</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>764164</v>
+        <v>764291</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>874584</v>
+        <v>875855</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>1206468</v>
+        <v>1208021</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>1283576</v>
+        <v>1283677</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1258542</v>
+        <v>1258078</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>280638</v>
+        <v>280314</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>250151</v>
+        <v>249523</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>259882</v>
+        <v>258279</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>186980</v>
+        <v>189032</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>1157831</v>
+        <v>1158679</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>1028560</v>
+        <v>1026908</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1000645</v>
+        <v>1000260</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>733865</v>
+        <v>734588</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1445971</v>
+        <v>1444705</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>1285127</v>
+        <v>1284562</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>1269835</v>
+        <v>1267855</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>932934</v>
+        <v>933308</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>292907</v>
+        <v>293148</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>262022</v>
+        <v>261277</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>275813</v>
+        <v>275265</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>219845</v>
+        <v>219073</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1190598</v>
+        <v>1190784</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1059176</v>
+        <v>1059630</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1031678</v>
+        <v>1030897</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>769519</v>
+        <v>769308</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1480167</v>
+        <v>1480368</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>1317464</v>
+        <v>1318029</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>1304110</v>
+        <v>1303353</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>981156</v>
+        <v>981373</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>3004262</v>
+        <v>3006039</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>3159613</v>
+        <v>3159781</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>3064350</v>
+        <v>3065161</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>2962218</v>
+        <v>2962928</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>3157673</v>
+        <v>3156938</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>3308469</v>
+        <v>3312104</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>3285326</v>
+        <v>3288707</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>3193372</v>
+        <v>3196252</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>6179884</v>
+        <v>6180508</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>6484812</v>
+        <v>6479544</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>6374915</v>
+        <v>6370855</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>6179975</v>
+        <v>6177436</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>3063506</v>
+        <v>3065185</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>3220290</v>
+        <v>3224199</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>3133160</v>
+        <v>3129342</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>3049746</v>
+        <v>3049409</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>3212819</v>
+        <v>3209520</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>3366832</v>
+        <v>3366758</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>3345034</v>
+        <v>3345534</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>3260976</v>
+        <v>3263014</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>6261621</v>
+        <v>6259587</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>6571102</v>
+        <v>6568337</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>6459403</v>
+        <v>6458741</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>6296237</v>
+        <v>6288709</v>
       </c>
     </row>
     <row r="32">
